--- a/output/04-overall-context.xlsx
+++ b/output/04-overall-context.xlsx
@@ -10,6 +10,7 @@
     <sheet name="descriptives" sheetId="1" r:id="rId1"/>
     <sheet name="coefficients" sheetId="2" r:id="rId2"/>
     <sheet name="pairwise" sheetId="3" r:id="rId3"/>
+    <sheet name="nr_studies" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -411,22 +412,22 @@
         <v>82</v>
       </c>
       <c r="C2">
-        <v>742</v>
+        <v>845</v>
       </c>
       <c r="D2">
-        <v>0.008546749316769083</v>
+        <v>0.007710466534301554</v>
       </c>
       <c r="E2">
-        <v>0.05352742300397512</v>
+        <v>0.05059402236771077</v>
       </c>
       <c r="F2">
-        <v>96.94912281175482</v>
+        <v>97.7210678207355</v>
       </c>
       <c r="G2">
-        <v>83.60057834995742</v>
+        <v>84.79796297379484</v>
       </c>
       <c r="H2">
-        <v>13.3485444617974</v>
+        <v>12.92310484694066</v>
       </c>
     </row>
     <row r="3">
@@ -439,22 +440,22 @@
         <v>51</v>
       </c>
       <c r="C3">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="D3">
-        <v>0.003229074165439001</v>
+        <v>0.002266906743304885</v>
       </c>
       <c r="E3">
-        <v>0.05656337442726946</v>
+        <v>0.05323324433729858</v>
       </c>
       <c r="F3">
-        <v>95.0878900115552</v>
+        <v>94.98187742734611</v>
       </c>
       <c r="G3">
-        <v>89.952695579664</v>
+        <v>91.10233738575046</v>
       </c>
       <c r="H3">
-        <v>5.135194431891215</v>
+        <v>3.879540041595643</v>
       </c>
     </row>
   </sheetData>
@@ -539,25 +540,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1235931381416397</v>
+        <v>0.1088660576832843</v>
       </c>
       <c r="E2">
-        <v>0.02804117774242773</v>
+        <v>0.02694838947763055</v>
       </c>
       <c r="F2">
-        <v>4.43020890878728</v>
+        <v>4.055872400564315</v>
       </c>
       <c r="G2">
-        <v>0.0001409524336796496</v>
+        <v>0.0003777071052438656</v>
       </c>
       <c r="H2">
-        <v>0.06659117695238687</v>
+        <v>0.05397136768315828</v>
       </c>
       <c r="I2">
-        <v>0.1797909828457701</v>
+        <v>0.1631046937958562</v>
       </c>
       <c r="J2">
-        <v>26.97333733060759</v>
+        <v>27.19094419875941</v>
       </c>
     </row>
     <row r="3">
@@ -577,25 +578,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.04601419846949677</v>
+        <v>0.04570203060089384</v>
       </c>
       <c r="E3">
-        <v>0.04877125957897673</v>
+        <v>0.04905655216241486</v>
       </c>
       <c r="F3">
-        <v>0.944136271490095</v>
+        <v>0.9322687271233721</v>
       </c>
       <c r="G3">
-        <v>0.4030566491402918</v>
+        <v>0.4086086668163802</v>
       </c>
       <c r="H3">
-        <v>-0.09408110567074755</v>
+        <v>-0.09543082549685647</v>
       </c>
       <c r="I3">
-        <v>0.1843225446592415</v>
+        <v>0.1850337295565198</v>
       </c>
       <c r="J3">
-        <v>3.666644741283274</v>
+        <v>3.653246753684463</v>
       </c>
     </row>
     <row r="4">
@@ -618,16 +619,16 @@
         <v>0.1789808979992115</v>
       </c>
       <c r="E4">
-        <v>9.369867933001281e-17</v>
+        <v>9.675137993899536e-17</v>
       </c>
       <c r="F4">
-        <v>1930973441655351</v>
+        <v>1870047346286094</v>
       </c>
       <c r="G4">
-        <v>3.296885180470587e-16</v>
+        <v>3.40429761648498e-16</v>
       </c>
       <c r="H4">
-        <v>0.1789808979992104</v>
+        <v>0.1789808979992103</v>
       </c>
       <c r="I4">
         <v>0.1789808979992127</v>
@@ -653,22 +654,22 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.1744220360100956</v>
+        <v>0.1366960143109622</v>
       </c>
       <c r="E5">
-        <v>1.599351493615614e-16</v>
+        <v>3.207913979655756e-16</v>
       </c>
       <c r="F5">
-        <v>1101845714517178</v>
+        <v>428805494825438.2</v>
       </c>
       <c r="G5">
-        <v>5.777757847400117e-16</v>
+        <v>1.484635295139447e-15</v>
       </c>
       <c r="H5">
-        <v>0.1744220360100937</v>
+        <v>0.1366960143109582</v>
       </c>
       <c r="I5">
-        <v>0.1744220360100976</v>
+        <v>0.1366960143109662</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -691,25 +692,25 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.09336563323262706</v>
+        <v>0.0776500003536626</v>
       </c>
       <c r="E6">
-        <v>0.02541611738604537</v>
+        <v>0.02221418991573963</v>
       </c>
       <c r="F6">
-        <v>3.684211615046327</v>
+        <v>3.502564434267127</v>
       </c>
       <c r="G6">
-        <v>0.001290136314472674</v>
+        <v>0.001942747956487021</v>
       </c>
       <c r="H6">
-        <v>0.04092160972745237</v>
+        <v>0.03180972527748716</v>
       </c>
       <c r="I6">
-        <v>0.1452966275340088</v>
+        <v>0.1231642938999653</v>
       </c>
       <c r="J6">
-        <v>22.11524715337987</v>
+        <v>22.70889626145427</v>
       </c>
     </row>
     <row r="7">
@@ -729,22 +730,22 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.4572828288958797</v>
+        <v>0.4572828288958798</v>
       </c>
       <c r="E7">
-        <v>1.648574206002003e-16</v>
+        <v>2.166474313636758e-16</v>
       </c>
       <c r="F7">
-        <v>2995741957943698</v>
+        <v>2279603726948210</v>
       </c>
       <c r="G7">
-        <v>2.125082137596933e-16</v>
+        <v>2.7926773624811e-16</v>
       </c>
       <c r="H7">
-        <v>0.457282828895878</v>
+        <v>0.4572828288958776</v>
       </c>
       <c r="I7">
-        <v>0.4572828288958813</v>
+        <v>0.457282828895882</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -767,25 +768,25 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.1792778480249302</v>
+        <v>0.172930865397675</v>
       </c>
       <c r="E8">
-        <v>0.04759719705236467</v>
+        <v>0.04636330590028399</v>
       </c>
       <c r="F8">
-        <v>3.80771278069038</v>
+        <v>3.767770799168988</v>
       </c>
       <c r="G8">
-        <v>0.003150415599758943</v>
+        <v>0.003370664097575282</v>
       </c>
       <c r="H8">
-        <v>0.07572737422923403</v>
+        <v>0.07192822190898303</v>
       </c>
       <c r="I8">
-        <v>0.279002718793255</v>
+        <v>0.2704228398527846</v>
       </c>
       <c r="J8">
-        <v>10.50680797849162</v>
+        <v>10.50581634719451</v>
       </c>
     </row>
     <row r="9">
@@ -805,25 +806,25 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.1076698645233538</v>
+        <v>0.09243101045783822</v>
       </c>
       <c r="E9">
-        <v>0.03420785655358983</v>
+        <v>0.0302921192009756</v>
       </c>
       <c r="F9">
-        <v>3.159766751543523</v>
+        <v>3.060056489278443</v>
       </c>
       <c r="G9">
-        <v>0.008749681170936824</v>
+        <v>0.01001196620783359</v>
       </c>
       <c r="H9">
-        <v>0.03307771291422289</v>
+        <v>0.02660735758199492</v>
       </c>
       <c r="I9">
-        <v>0.1810691999454102</v>
+        <v>0.1574565946474072</v>
       </c>
       <c r="J9">
-        <v>11.36236418350603</v>
+        <v>11.86865584060162</v>
       </c>
     </row>
     <row r="10">
@@ -843,25 +844,25 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.05153197186363877</v>
+        <v>0.05229526606655354</v>
       </c>
       <c r="E10">
-        <v>0.03183170709311988</v>
+        <v>0.03157866084237695</v>
       </c>
       <c r="F10">
-        <v>1.620323398692041</v>
+        <v>1.657543902197481</v>
       </c>
       <c r="G10">
-        <v>0.1753099400441759</v>
+        <v>0.1688235084642944</v>
       </c>
       <c r="H10">
-        <v>-0.03431932327700472</v>
+        <v>-0.03345555782361513</v>
       </c>
       <c r="I10">
-        <v>0.1366283150256619</v>
+        <v>0.1372817791184651</v>
       </c>
       <c r="J10">
-        <v>4.312388682962298</v>
+        <v>4.232258305185446</v>
       </c>
     </row>
     <row r="11">
@@ -881,22 +882,22 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.05126955589916293</v>
+        <v>0.05126955589916281</v>
       </c>
       <c r="E11">
-        <v>7.305123330012709e-17</v>
+        <v>2.361288975329441e-17</v>
       </c>
       <c r="F11">
-        <v>702446028484748.9</v>
+        <v>2173158357308966</v>
       </c>
       <c r="G11">
-        <v>9.062899447817196e-16</v>
+        <v>2.929467934200207e-16</v>
       </c>
       <c r="H11">
-        <v>0.051269555899162</v>
+        <v>0.05126955589916251</v>
       </c>
       <c r="I11">
-        <v>0.05126955589916385</v>
+        <v>0.05126955589916311</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -919,25 +920,25 @@
         </is>
       </c>
       <c r="D12">
-        <v>-0.009110783580163467</v>
+        <v>-0.005095168936260564</v>
       </c>
       <c r="E12">
-        <v>0.03383988996106455</v>
+        <v>0.031285224964531</v>
       </c>
       <c r="F12">
-        <v>-0.2692395184376238</v>
+        <v>-0.1628632376525016</v>
       </c>
       <c r="G12">
-        <v>0.7923135163008501</v>
+        <v>0.8732287039183231</v>
       </c>
       <c r="H12">
-        <v>-0.08264317705976894</v>
+        <v>-0.07282729001473054</v>
       </c>
       <c r="I12">
-        <v>0.06452027453608733</v>
+        <v>0.06268373525099136</v>
       </c>
       <c r="J12">
-        <v>12.01428552425983</v>
+        <v>12.50386954169758</v>
       </c>
     </row>
     <row r="13">
@@ -957,25 +958,25 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.06682098770801027</v>
+        <v>0.05693802332938057</v>
       </c>
       <c r="E13">
-        <v>0.04294503202534589</v>
+        <v>0.0387315676428654</v>
       </c>
       <c r="F13">
-        <v>1.558287530219094</v>
+        <v>1.471659336773607</v>
       </c>
       <c r="G13">
-        <v>0.1534795976013769</v>
+        <v>0.1747822883382157</v>
       </c>
       <c r="H13">
-        <v>-0.0301683978187206</v>
+        <v>-0.0304418403151962</v>
       </c>
       <c r="I13">
-        <v>0.1625638029389022</v>
+        <v>0.1434542099698444</v>
       </c>
       <c r="J13">
-        <v>9.03059527784198</v>
+        <v>9.113442660591378</v>
       </c>
     </row>
   </sheetData>
@@ -1040,19 +1041,19 @@
         </is>
       </c>
       <c r="C2">
-        <v>1.389700964226703</v>
+        <v>1.135681993343508</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>5.005671511045769</v>
+        <v>4.907697647035894</v>
       </c>
       <c r="F2">
-        <v>0.223258116545841</v>
+        <v>0.3084886948449619</v>
       </c>
       <c r="G2">
-        <v>0.309126622909626</v>
+        <v>0.3966283219435224</v>
       </c>
     </row>
     <row r="3">
@@ -1067,19 +1068,19 @@
         </is>
       </c>
       <c r="C3">
-        <v>2.02207576221925</v>
+        <v>2.658059853332448</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>26.97333733060763</v>
+        <v>27.1909441987594</v>
       </c>
       <c r="F3">
-        <v>0.05318954800776178</v>
+        <v>0.01300454816233488</v>
       </c>
       <c r="G3">
-        <v>0.1224115801195573</v>
+        <v>0.03385258680827456</v>
       </c>
     </row>
     <row r="4">
@@ -1094,19 +1095,19 @@
         </is>
       </c>
       <c r="C4">
-        <v>1.854258189685032</v>
+        <v>1.048592719867346</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>26.97333733060763</v>
+        <v>27.1909441987594</v>
       </c>
       <c r="F4">
-        <v>0.0746671194630643</v>
+        <v>0.3035971223524434</v>
       </c>
       <c r="G4">
-        <v>0.1344008150335158</v>
+        <v>0.3966283219435224</v>
       </c>
     </row>
     <row r="5">
@@ -1121,19 +1122,19 @@
         </is>
       </c>
       <c r="C5">
-        <v>0.8082828681375933</v>
+        <v>0.9017465241997387</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>46.56959964976821</v>
+        <v>47.8956291057825</v>
       </c>
       <c r="F5">
-        <v>0.4230376770924863</v>
+        <v>0.37170397851715</v>
       </c>
       <c r="G5">
-        <v>0.4762868878008861</v>
+        <v>0.44604477422058</v>
       </c>
     </row>
     <row r="6">
@@ -1148,19 +1149,19 @@
         </is>
       </c>
       <c r="C6">
-        <v>13.18211452879576</v>
+        <v>14.27065105941262</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>26.97333733060763</v>
+        <v>27.1909441987594</v>
       </c>
       <c r="F6">
-        <v>2.851814549435187e-13</v>
+        <v>3.778049700936994e-14</v>
       </c>
       <c r="G6">
-        <v>2.566633094491668e-12</v>
+        <v>3.400244730843294e-13</v>
       </c>
     </row>
     <row r="7">
@@ -1175,19 +1176,19 @@
         </is>
       </c>
       <c r="C7">
-        <v>1.031951019768064</v>
+        <v>1.219311689927433</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>19.92540749875938</v>
+        <v>19.39394332933332</v>
       </c>
       <c r="F7">
-        <v>0.3144589741923522</v>
+        <v>0.2373484712518597</v>
       </c>
       <c r="G7">
-        <v>0.4043043953901672</v>
+        <v>0.3560227068777896</v>
       </c>
     </row>
     <row r="8">
@@ -1202,19 +1203,19 @@
         </is>
       </c>
       <c r="C8">
-        <v>2.765623592543173</v>
+        <v>2.75591671047974</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>3.666644741283274</v>
+        <v>3.653246753684462</v>
       </c>
       <c r="F8">
-        <v>0.05571757146953445</v>
+        <v>0.05647248700513487</v>
       </c>
       <c r="G8">
-        <v>0.1224115801195573</v>
+        <v>0.1270630957615535</v>
       </c>
     </row>
     <row r="9">
@@ -1229,19 +1230,19 @@
         </is>
       </c>
       <c r="C9">
-        <v>2.66913639044181</v>
+        <v>1.871783088115357</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>3.666644741283274</v>
+        <v>3.653246753684462</v>
       </c>
       <c r="F9">
-        <v>0.06120579005977866</v>
+        <v>0.1413046943486819</v>
       </c>
       <c r="G9">
-        <v>0.1224115801195573</v>
+        <v>0.2312258634796613</v>
       </c>
     </row>
     <row r="10">
@@ -1256,19 +1257,19 @@
         </is>
       </c>
       <c r="C10">
-        <v>0.8653576410278385</v>
+        <v>0.5955742728264293</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>5.438304280428243</v>
+        <v>5.247762442424044</v>
       </c>
       <c r="F10">
-        <v>0.4233661224896765</v>
+        <v>0.5762175311730369</v>
       </c>
       <c r="G10">
-        <v>0.4762868878008861</v>
+        <v>0.6101126800655684</v>
       </c>
     </row>
     <row r="11">
@@ -1283,19 +1284,19 @@
         </is>
       </c>
       <c r="C11">
-        <v>9.182120385274185</v>
+        <v>9.135097816193861</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>3.666644741283274</v>
+        <v>3.653246753684462</v>
       </c>
       <c r="F11">
-        <v>0.001164958857701469</v>
+        <v>0.001205866535826753</v>
       </c>
       <c r="G11">
-        <v>0.005242314859656611</v>
+        <v>0.004341119528976311</v>
       </c>
     </row>
     <row r="12">
@@ -1310,19 +1311,19 @@
         </is>
       </c>
       <c r="C12">
-        <v>1.98377128701671</v>
+        <v>1.910437377367318</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>6.822699526873017</v>
+        <v>6.803424116407768</v>
       </c>
       <c r="F12">
-        <v>0.08875906007623471</v>
+        <v>0.09890122967779887</v>
       </c>
       <c r="G12">
-        <v>0.1452420983065659</v>
+        <v>0.178022213420038</v>
       </c>
     </row>
     <row r="13">
@@ -1354,19 +1355,19 @@
         </is>
       </c>
       <c r="C14">
-        <v>3.434486278746639</v>
+        <v>4.642214285583472</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14">
-        <v>22.11524715337985</v>
+        <v>22.70889626145426</v>
       </c>
       <c r="F14">
-        <v>0.00235503693663253</v>
+        <v>0.0001168870880583285</v>
       </c>
       <c r="G14">
-        <v>0.008478132971877108</v>
+        <v>0.0005259918962624783</v>
       </c>
     </row>
     <row r="15">
@@ -1398,19 +1399,19 @@
         </is>
       </c>
       <c r="C16">
-        <v>0.006445636631794709</v>
+        <v>0.1346614754744741</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>10.50680797849162</v>
+        <v>10.50581634719452</v>
       </c>
       <c r="F16">
-        <v>0.9949779113068933</v>
+        <v>0.8954246335837814</v>
       </c>
       <c r="G16">
-        <v>0.9949779113068933</v>
+        <v>0.8954246335837814</v>
       </c>
     </row>
     <row r="17">
@@ -1425,19 +1426,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>3.249335954318312</v>
+        <v>2.689743935389337</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>22.11524715337985</v>
+        <v>22.70889626145426</v>
       </c>
       <c r="F17">
-        <v>0.003660679668466266</v>
+        <v>0.01316489486988455</v>
       </c>
       <c r="G17">
-        <v>0.0109820390053988</v>
+        <v>0.03385258680827456</v>
       </c>
     </row>
     <row r="18">
@@ -1469,19 +1470,19 @@
         </is>
       </c>
       <c r="C19">
-        <v>0.1053128530050111</v>
+        <v>0.800831503765332</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19">
-        <v>10.50680797849162</v>
+        <v>10.50581634719452</v>
       </c>
       <c r="F19">
-        <v>0.9181111001985374</v>
+        <v>0.4409640780905094</v>
       </c>
       <c r="G19">
-        <v>0.9721176355043337</v>
+        <v>0.4960845878518231</v>
       </c>
     </row>
     <row r="20">
@@ -1496,19 +1497,19 @@
         </is>
       </c>
       <c r="C20">
-        <v>15.7471706243806</v>
+        <v>18.7296346170458</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>22.11524715337985</v>
+        <v>22.70889626145426</v>
       </c>
       <c r="F20">
-        <v>1.675168401955636e-13</v>
+        <v>2.650709969264459e-15</v>
       </c>
       <c r="G20">
-        <v>2.566633094491668e-12</v>
+        <v>4.771277944676026e-14</v>
       </c>
     </row>
     <row r="21">
@@ -1523,19 +1524,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>1.623447940706443</v>
+        <v>1.884438382418104</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>22.15033969332834</v>
+        <v>21.24446019660779</v>
       </c>
       <c r="F21">
-        <v>0.1186409472210105</v>
+        <v>0.0732624463167395</v>
       </c>
       <c r="G21">
-        <v>0.1779614208315158</v>
+        <v>0.146524892633479</v>
       </c>
     </row>
     <row r="22">
@@ -1550,19 +1551,19 @@
         </is>
       </c>
       <c r="C22">
-        <v>6.568324518881148</v>
+        <v>6.884409462363371</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
-        <v>10.50680797849162</v>
+        <v>10.50581634719452</v>
       </c>
       <c r="F22">
-        <v>5.013758528362576e-05</v>
+        <v>3.33583406293437e-05</v>
       </c>
       <c r="G22">
-        <v>0.0003008255117017545</v>
+        <v>0.0002001500437760622</v>
       </c>
     </row>
     <row r="23">
@@ -1577,19 +1578,19 @@
         </is>
       </c>
       <c r="C23">
-        <v>1.209384227929848</v>
+        <v>0.9221611737124695</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23">
-        <v>9.155336904086376</v>
+        <v>8.517108786496292</v>
       </c>
       <c r="F23">
-        <v>0.2568178216610649</v>
+        <v>0.3818242952866268</v>
       </c>
       <c r="G23">
-        <v>0.4280297027684415</v>
+        <v>0.6363738254777113</v>
       </c>
     </row>
     <row r="24">
@@ -1604,19 +1605,19 @@
         </is>
       </c>
       <c r="C24">
-        <v>1.659685954981539</v>
+        <v>1.36606643308144</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>11.36236418350603</v>
+        <v>11.8686558406016</v>
       </c>
       <c r="F24">
-        <v>0.1242981960059332</v>
+        <v>0.1972441186778474</v>
       </c>
       <c r="G24">
-        <v>0.4143273200197775</v>
+        <v>0.4655763641206606</v>
       </c>
     </row>
     <row r="25">
@@ -1631,19 +1632,19 @@
         </is>
       </c>
       <c r="C25">
-        <v>2.435690378701117</v>
+        <v>2.245616594784637</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>23.09348593078533</v>
+        <v>24.10139663986222</v>
       </c>
       <c r="F25">
-        <v>0.02298946195512781</v>
+        <v>0.03416480890029303</v>
       </c>
       <c r="G25">
-        <v>0.2298946195512781</v>
+        <v>0.3416480890029303</v>
       </c>
     </row>
     <row r="26">
@@ -1658,19 +1659,19 @@
         </is>
       </c>
       <c r="C26">
-        <v>0.7498199131195353</v>
+        <v>0.7259608547951426</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26">
-        <v>20.08368531757578</v>
+        <v>20.25085496711703</v>
       </c>
       <c r="F26">
-        <v>0.462057088056853</v>
+        <v>0.4761700227506654</v>
       </c>
       <c r="G26">
-        <v>0.6600815543669328</v>
+        <v>0.6802428896438077</v>
       </c>
     </row>
     <row r="27">
@@ -1685,19 +1686,19 @@
         </is>
       </c>
       <c r="C27">
-        <v>0.008265692912313539</v>
+        <v>0.03256844919392969</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <v>4.312388682962298</v>
+        <v>4.232258305185445</v>
       </c>
       <c r="F27">
-        <v>0.9937734275482892</v>
+        <v>0.9754973396540498</v>
       </c>
       <c r="G27">
-        <v>0.9937734275482892</v>
+        <v>0.9754973396540498</v>
       </c>
     </row>
     <row r="28">
@@ -1712,19 +1713,19 @@
         </is>
       </c>
       <c r="C28">
-        <v>1.306298012189331</v>
+        <v>1.292141545926189</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28">
-        <v>8.472412104107971</v>
+        <v>7.90754487392106</v>
       </c>
       <c r="F28">
-        <v>0.2257978792835939</v>
+        <v>0.2327881820603303</v>
       </c>
       <c r="G28">
-        <v>0.4280297027684415</v>
+        <v>0.4655763641206606</v>
       </c>
     </row>
     <row r="29">
@@ -1739,19 +1740,19 @@
         </is>
       </c>
       <c r="C29">
-        <v>0.2870225321914063</v>
+        <v>0.09318260022456785</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29">
-        <v>9.003494492434017</v>
+        <v>8.778216188743157</v>
       </c>
       <c r="F29">
-        <v>0.7805910988608868</v>
+        <v>0.9278505087117879</v>
       </c>
       <c r="G29">
-        <v>0.8673234431787632</v>
+        <v>0.9754973396540498</v>
       </c>
     </row>
     <row r="30">
@@ -1766,19 +1767,19 @@
         </is>
       </c>
       <c r="C30">
-        <v>1.785631822509195</v>
+        <v>1.803079945883427</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>12.01428552425983</v>
+        <v>12.50386954169757</v>
       </c>
       <c r="F30">
-        <v>0.0994036024461174</v>
+        <v>0.09551270829270293</v>
       </c>
       <c r="G30">
-        <v>0.4143273200197775</v>
+        <v>0.4655763641206606</v>
       </c>
     </row>
     <row r="31">
@@ -1793,19 +1794,19 @@
         </is>
       </c>
       <c r="C31">
-        <v>0.3633984758273874</v>
+        <v>0.1467827095028937</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31">
-        <v>9.030595277841972</v>
+        <v>9.11344266059138</v>
       </c>
       <c r="F31">
-        <v>0.7246686592670648</v>
+        <v>0.8864993540887041</v>
       </c>
       <c r="G31">
-        <v>0.8673234431787632</v>
+        <v>0.9754973396540498</v>
       </c>
     </row>
     <row r="32">
@@ -1820,19 +1821,270 @@
         </is>
       </c>
       <c r="C32">
-        <v>1.390599033032526</v>
+        <v>1.247172033613706</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>19.9361053129988</v>
+        <v>19.8658827403374</v>
       </c>
       <c r="F32">
-        <v>0.1796765535540352</v>
+        <v>0.2268380661295306</v>
       </c>
       <c r="G32">
-        <v>0.4280297027684415</v>
+        <v>0.4655763641206606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>moderator_context</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>n_effect_sizes</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>k_studies</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>417</v>
+      </c>
+      <c r="D2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Health care</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parenting</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>240</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>132</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exercise</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Healthcare</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Partner</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>140</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Exercise</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Health care</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Parenting</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>129</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>115</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
